--- a/scrapers/TA/scrapes/2. Run/TABLEAU HOTELS UND KONTROLLE/Belek_ready.xlsx
+++ b/scrapers/TA/scrapes/2. Run/TABLEAU HOTELS UND KONTROLLE/Belek_ready.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TobiasRordorf/Desktop/UNI/MBI HSG/4. Semester/Python/GitHub/hotelierchallenge/scrapers/TA/scrapes/2. Run/TABLEAU HOTELS UND KONTROLLE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{15D73682-D88E-CD48-93DA-1D433098B497}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA3C6F4-0A14-9C46-8991-AE3F3BDCDE6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25040" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Belek_appended" sheetId="1" r:id="rId1"/>
@@ -771,7 +771,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1253,9 +1253,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Akzent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1611,11 +1612,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F240"/>
+      <selection activeCell="E3" sqref="E3:E240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1653,7 +1654,7 @@
       <c r="A2">
         <v>242</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="1">
@@ -1662,7 +1663,7 @@
       <c r="D2">
         <v>566</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F2" s="1">
@@ -1677,7 +1678,7 @@
       <c r="A3">
         <v>231.2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C3" s="1">
@@ -1687,7 +1688,7 @@
       <c r="D3">
         <v>566</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>197</v>
       </c>
       <c r="F3" s="1">
@@ -1703,7 +1704,7 @@
       <c r="A4">
         <v>193.4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1">
@@ -1713,7 +1714,7 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="1">
@@ -1729,7 +1730,7 @@
       <c r="A5">
         <v>231.2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C5" s="1">
@@ -1739,7 +1740,7 @@
       <c r="D5">
         <v>566</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>199</v>
       </c>
       <c r="F5" s="1">
@@ -1755,7 +1756,7 @@
       <c r="A6">
         <v>176.8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="1">
@@ -1765,7 +1766,7 @@
       <c r="D6">
         <v>566</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F6" s="1">
@@ -1781,7 +1782,7 @@
       <c r="A7">
         <v>250.2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C7" s="1">
@@ -1791,7 +1792,7 @@
       <c r="D7">
         <v>566</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F7" s="1">
@@ -1807,7 +1808,7 @@
       <c r="A8">
         <v>183.6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C8" s="1">
@@ -1817,7 +1818,7 @@
       <c r="D8">
         <v>566</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>205</v>
       </c>
       <c r="F8" s="1">
@@ -1833,7 +1834,7 @@
       <c r="A9">
         <v>231.2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C9" s="1">
@@ -1843,7 +1844,7 @@
       <c r="D9">
         <v>847</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F9" s="1">
@@ -1859,7 +1860,7 @@
       <c r="A10">
         <v>251.8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C10" s="1">
@@ -1869,7 +1870,7 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F10" s="1">
@@ -1885,7 +1886,7 @@
       <c r="A11">
         <v>231.8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C11" s="1">
@@ -1895,7 +1896,7 @@
       <c r="D11">
         <v>847</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>147</v>
       </c>
       <c r="F11" s="1">
@@ -1911,7 +1912,7 @@
       <c r="A12">
         <v>238</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="1">
@@ -1921,7 +1922,7 @@
       <c r="D12">
         <v>847</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F12" s="1">
@@ -1937,7 +1938,7 @@
       <c r="A13">
         <v>187.8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C13" s="1">
@@ -1947,7 +1948,7 @@
       <c r="D13">
         <v>847</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F13" s="1">
@@ -1963,7 +1964,7 @@
       <c r="A14">
         <v>231.2</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C14" s="1">
@@ -1973,7 +1974,7 @@
       <c r="D14">
         <v>847</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F14" s="1">
@@ -1989,7 +1990,7 @@
       <c r="A15">
         <v>178.2</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="1">
@@ -1999,7 +2000,7 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="1">
@@ -2015,7 +2016,7 @@
       <c r="A16">
         <v>225.8</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C16" s="1">
@@ -2025,7 +2026,7 @@
       <c r="D16">
         <v>847</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F16" s="1">
@@ -2041,7 +2042,7 @@
       <c r="A17">
         <v>245.2</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C17" s="1">
@@ -2051,7 +2052,7 @@
       <c r="D17">
         <v>847</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>135</v>
       </c>
       <c r="F17" s="1">
@@ -2067,7 +2068,7 @@
       <c r="A18">
         <v>183.6</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C18" s="1">
@@ -2077,7 +2078,7 @@
       <c r="D18">
         <v>847</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F18" s="1">
@@ -2093,7 +2094,7 @@
       <c r="A19">
         <v>178.2</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C19" s="1">
@@ -2103,7 +2104,7 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F19" s="1">
@@ -2119,7 +2120,7 @@
       <c r="A20">
         <v>232.6</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C20" s="1">
@@ -2129,7 +2130,7 @@
       <c r="D20">
         <v>847</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F20" s="1">
@@ -2145,7 +2146,7 @@
       <c r="A21">
         <v>238</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C21" s="1">
@@ -2155,7 +2156,7 @@
       <c r="D21">
         <v>847</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F21" s="1">
@@ -2171,7 +2172,7 @@
       <c r="A22">
         <v>178.2</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C22" s="1">
@@ -2181,7 +2182,7 @@
       <c r="D22">
         <v>847</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F22" s="1">
@@ -2197,7 +2198,7 @@
       <c r="A23">
         <v>182.4</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C23" s="1">
@@ -2207,7 +2208,7 @@
       <c r="D23">
         <v>847</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F23" s="1">
@@ -2223,7 +2224,7 @@
       <c r="A24">
         <v>240.8</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C24" s="1">
@@ -2233,7 +2234,7 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F24" s="1">
@@ -2249,7 +2250,7 @@
       <c r="A25">
         <v>176.4</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="1">
@@ -2259,7 +2260,7 @@
       <c r="D25">
         <v>566</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F25" s="1">
@@ -2275,7 +2276,7 @@
       <c r="A26">
         <v>243.2</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C26" s="1">
@@ -2285,7 +2286,7 @@
       <c r="D26">
         <v>566</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F26" s="1">
@@ -2301,7 +2302,7 @@
       <c r="A27">
         <v>197.4</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C27" s="1">
@@ -2311,7 +2312,7 @@
       <c r="D27">
         <v>566</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>213</v>
       </c>
       <c r="F27" s="1">
@@ -2327,7 +2328,7 @@
       <c r="A28">
         <v>263.8</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C28" s="1">
@@ -2337,7 +2338,7 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>122</v>
       </c>
       <c r="F28" s="1">
@@ -2353,7 +2354,7 @@
       <c r="A29">
         <v>231.8</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="1">
@@ -2363,7 +2364,7 @@
       <c r="D29">
         <v>566</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="1">
@@ -2379,7 +2380,7 @@
       <c r="A30">
         <v>232</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="1">
@@ -2389,7 +2390,7 @@
       <c r="D30">
         <v>566</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F30" s="1">
@@ -2405,7 +2406,7 @@
       <c r="A31">
         <v>257.2</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C31" s="1">
@@ -2415,7 +2416,7 @@
       <c r="D31">
         <v>566</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F31" s="1">
@@ -2431,7 +2432,7 @@
       <c r="A32">
         <v>177.6</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="1">
@@ -2441,7 +2442,7 @@
       <c r="D32">
         <v>566</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F32" s="1">
@@ -2457,7 +2458,7 @@
       <c r="A33">
         <v>231.8</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C33" s="1">
@@ -2467,7 +2468,7 @@
       <c r="D33">
         <v>940</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F33" s="1">
@@ -2483,7 +2484,7 @@
       <c r="A34">
         <v>256.8</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C34" s="1">
@@ -2493,7 +2494,7 @@
       <c r="D34">
         <v>940</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>202</v>
       </c>
       <c r="F34" s="1">
@@ -2509,7 +2510,7 @@
       <c r="A35">
         <v>251</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C35" s="1">
@@ -2519,7 +2520,7 @@
       <c r="D35">
         <v>940</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>164</v>
       </c>
       <c r="F35" s="1">
@@ -2535,7 +2536,7 @@
       <c r="A36">
         <v>183.6</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="1">
@@ -2545,7 +2546,7 @@
       <c r="D36">
         <v>940</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F36" s="1">
@@ -2561,7 +2562,7 @@
       <c r="A37">
         <v>231.8</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C37" s="1">
@@ -2571,7 +2572,7 @@
       <c r="D37">
         <v>940</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>206</v>
       </c>
       <c r="F37" s="1">
@@ -2587,7 +2588,7 @@
       <c r="A38">
         <v>250.8</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C38" s="1">
@@ -2597,7 +2598,7 @@
       <c r="D38">
         <v>940</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>169</v>
       </c>
       <c r="F38" s="1">
@@ -2613,7 +2614,7 @@
       <c r="A39">
         <v>177.8</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C39" s="1">
@@ -2623,7 +2624,7 @@
       <c r="D39">
         <v>940</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>200</v>
       </c>
       <c r="F39" s="1">
@@ -2639,7 +2640,7 @@
       <c r="A40">
         <v>232.6</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C40" s="1">
@@ -2649,7 +2650,7 @@
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F40" s="1">
@@ -2665,7 +2666,7 @@
       <c r="A41">
         <v>231.8</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C41" s="1">
@@ -2675,7 +2676,7 @@
       <c r="D41">
         <v>940</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F41" s="1">
@@ -2691,7 +2692,7 @@
       <c r="A42">
         <v>232.6</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C42" s="1">
@@ -2701,7 +2702,7 @@
       <c r="D42">
         <v>940</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F42" s="1">
@@ -2717,7 +2718,7 @@
       <c r="A43">
         <v>182.6</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>231</v>
       </c>
       <c r="C43" s="1">
@@ -2727,7 +2728,7 @@
       <c r="D43">
         <v>940</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="2" t="s">
         <v>231</v>
       </c>
       <c r="F43" s="1">
@@ -2743,7 +2744,7 @@
       <c r="A44">
         <v>188.2</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C44" s="1">
@@ -2753,7 +2754,7 @@
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
         <v>154</v>
       </c>
       <c r="F44" s="1">
@@ -2769,7 +2770,7 @@
       <c r="A45">
         <v>177.6</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C45" s="1">
@@ -2779,7 +2780,7 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>153</v>
       </c>
       <c r="F45" s="1">
@@ -2795,7 +2796,7 @@
       <c r="A46">
         <v>232.4</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C46" s="1">
@@ -2805,7 +2806,7 @@
       <c r="D46">
         <v>940</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F46" s="1">
@@ -2821,7 +2822,7 @@
       <c r="A47">
         <v>182.4</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C47" s="1">
@@ -2831,7 +2832,7 @@
       <c r="D47">
         <v>940</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F47" s="1">
@@ -2847,7 +2848,7 @@
       <c r="A48">
         <v>178</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C48" s="1">
@@ -2857,7 +2858,7 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F48" s="1">
@@ -2873,7 +2874,7 @@
       <c r="A49">
         <v>177.8</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C49" s="1">
@@ -2883,7 +2884,7 @@
       <c r="D49">
         <v>566</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F49" s="1">
@@ -2899,7 +2900,7 @@
       <c r="A50">
         <v>178</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C50" s="1">
@@ -2909,7 +2910,7 @@
       <c r="D50">
         <v>565</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F50" s="1">
@@ -2925,7 +2926,7 @@
       <c r="A51">
         <v>257</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C51" s="1">
@@ -2935,7 +2936,7 @@
       <c r="D51">
         <v>565</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F51" s="1">
@@ -2951,7 +2952,7 @@
       <c r="A52">
         <v>188</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C52" s="1">
@@ -2961,7 +2962,7 @@
       <c r="D52">
         <v>565</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F52" s="1">
@@ -2977,7 +2978,7 @@
       <c r="A53">
         <v>191.6</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C53" s="1">
@@ -2987,7 +2988,7 @@
       <c r="D53">
         <v>565</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F53" s="1">
@@ -3003,7 +3004,7 @@
       <c r="A54">
         <v>225.8</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C54" s="1">
@@ -3013,7 +3014,7 @@
       <c r="D54">
         <v>565</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="2" t="s">
         <v>224</v>
       </c>
       <c r="F54" s="1">
@@ -3029,7 +3030,7 @@
       <c r="A55">
         <v>230.2</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C55" s="1">
@@ -3039,7 +3040,7 @@
       <c r="D55">
         <v>565</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="2" t="s">
         <v>186</v>
       </c>
       <c r="F55" s="1">
@@ -3055,7 +3056,7 @@
       <c r="A56">
         <v>230.2</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C56" s="1">
@@ -3065,7 +3066,7 @@
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F56" s="1">
@@ -3081,7 +3082,7 @@
       <c r="A57">
         <v>244.8</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C57" s="1">
@@ -3091,7 +3092,7 @@
       <c r="D57">
         <v>565</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F57" s="1">
@@ -3107,7 +3108,7 @@
       <c r="A58">
         <v>226</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C58" s="1">
@@ -3117,7 +3118,7 @@
       <c r="D58">
         <v>565</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F58" s="1">
@@ -3133,7 +3134,7 @@
       <c r="A59">
         <v>172.2</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C59" s="1">
@@ -3143,7 +3144,7 @@
       <c r="D59">
         <v>565</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F59" s="1">
@@ -3159,7 +3160,7 @@
       <c r="A60">
         <v>225.6</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C60" s="1">
@@ -3169,7 +3170,7 @@
       <c r="D60">
         <v>565</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="2" t="s">
         <v>151</v>
       </c>
       <c r="F60" s="1">
@@ -3185,7 +3186,7 @@
       <c r="A61">
         <v>197.4</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C61" s="1">
@@ -3195,7 +3196,7 @@
       <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="2" t="s">
         <v>174</v>
       </c>
       <c r="F61" s="1">
@@ -3211,7 +3212,7 @@
       <c r="A62">
         <v>171.8</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C62" s="1">
@@ -3221,7 +3222,7 @@
       <c r="D62">
         <v>565</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F62" s="1">
@@ -3237,7 +3238,7 @@
       <c r="A63">
         <v>226</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C63" s="1">
@@ -3247,7 +3248,7 @@
       <c r="D63">
         <v>565</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="2" t="s">
         <v>166</v>
       </c>
       <c r="F63" s="1">
@@ -3263,7 +3264,7 @@
       <c r="A64">
         <v>226.4</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C64" s="1">
@@ -3273,7 +3274,7 @@
       <c r="D64">
         <v>565</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="2" t="s">
         <v>160</v>
       </c>
       <c r="F64" s="1">
@@ -3289,7 +3290,7 @@
       <c r="A65">
         <v>225.8</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C65" s="1">
@@ -3299,7 +3300,7 @@
       <c r="D65">
         <v>0</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F65" s="1">
@@ -3315,7 +3316,7 @@
       <c r="A66">
         <v>244.8</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C66" s="1">
@@ -3325,7 +3326,7 @@
       <c r="D66">
         <v>565</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="2" t="s">
         <v>208</v>
       </c>
       <c r="F66" s="1">
@@ -3341,7 +3342,7 @@
       <c r="A67">
         <v>190.6</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C67" s="1">
@@ -3351,7 +3352,7 @@
       <c r="D67">
         <v>565</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F67" s="1">
@@ -3367,7 +3368,7 @@
       <c r="A68">
         <v>171.8</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C68" s="1">
@@ -3377,7 +3378,7 @@
       <c r="D68">
         <v>565</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="2" t="s">
         <v>209</v>
       </c>
       <c r="F68" s="1">
@@ -3393,7 +3394,7 @@
       <c r="A69">
         <v>225.4</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C69" s="1">
@@ -3403,7 +3404,7 @@
       <c r="D69">
         <v>0</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="2" t="s">
         <v>182</v>
       </c>
       <c r="F69" s="1">
@@ -3419,7 +3420,7 @@
       <c r="A70">
         <v>225.2</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C70" s="1">
@@ -3429,7 +3430,7 @@
       <c r="D70">
         <v>565</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F70" s="1">
@@ -3445,7 +3446,7 @@
       <c r="A71">
         <v>171.2</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C71" s="1">
@@ -3455,7 +3456,7 @@
       <c r="D71">
         <v>565</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="2" t="s">
         <v>183</v>
       </c>
       <c r="F71" s="1">
@@ -3471,7 +3472,7 @@
       <c r="A72">
         <v>175.6</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C72" s="1">
@@ -3481,7 +3482,7 @@
       <c r="D72">
         <v>0</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F72" s="1">
@@ -3497,7 +3498,7 @@
       <c r="A73">
         <v>171.6</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C73" s="1">
@@ -3507,7 +3508,7 @@
       <c r="D73">
         <v>565</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F73" s="1">
@@ -3523,7 +3524,7 @@
       <c r="A74">
         <v>244.4</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>239</v>
       </c>
       <c r="C74" s="1">
@@ -3533,7 +3534,7 @@
       <c r="D74">
         <v>565</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F74" s="1">
@@ -3549,7 +3550,7 @@
       <c r="A75">
         <v>238</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C75" s="1">
@@ -3559,7 +3560,7 @@
       <c r="D75">
         <v>0</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F75" s="1">
@@ -3575,7 +3576,7 @@
       <c r="A76">
         <v>225.6</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C76" s="1">
@@ -3585,7 +3586,7 @@
       <c r="D76">
         <v>0</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="2" t="s">
         <v>227</v>
       </c>
       <c r="F76" s="1">
@@ -3601,7 +3602,7 @@
       <c r="A77">
         <v>171.6</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C77" s="1">
@@ -3611,7 +3612,7 @@
       <c r="D77">
         <v>565</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="2" t="s">
         <v>180</v>
       </c>
       <c r="F77" s="1">
@@ -3627,7 +3628,7 @@
       <c r="A78">
         <v>194.6</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>236</v>
       </c>
       <c r="C78" s="1">
@@ -3637,7 +3638,7 @@
       <c r="D78">
         <v>565</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="2" t="s">
         <v>236</v>
       </c>
       <c r="F78" s="1">
@@ -3653,7 +3654,7 @@
       <c r="A79">
         <v>226.4</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C79" s="1">
@@ -3663,7 +3664,7 @@
       <c r="D79">
         <v>565</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F79" s="1">
@@ -3679,7 +3680,7 @@
       <c r="A80">
         <v>190.6</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C80" s="1">
@@ -3689,7 +3690,7 @@
       <c r="D80">
         <v>565</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F80" s="1">
@@ -3705,7 +3706,7 @@
       <c r="A81">
         <v>225.6</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C81" s="1">
@@ -3715,7 +3716,7 @@
       <c r="D81">
         <v>0</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F81" s="1">
@@ -3731,7 +3732,7 @@
       <c r="A82">
         <v>171.4</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C82" s="1">
@@ -3741,7 +3742,7 @@
       <c r="D82">
         <v>0</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F82" s="1">
@@ -3757,7 +3758,7 @@
       <c r="A83">
         <v>256</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C83" s="1">
@@ -3767,7 +3768,7 @@
       <c r="D83">
         <v>0</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F83" s="1">
@@ -3783,7 +3784,7 @@
       <c r="A84">
         <v>225.4</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C84" s="1">
@@ -3793,7 +3794,7 @@
       <c r="D84">
         <v>0</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F84" s="1">
@@ -3809,7 +3810,7 @@
       <c r="A85">
         <v>225.8</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C85" s="1">
@@ -3819,7 +3820,7 @@
       <c r="D85">
         <v>0</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F85" s="1">
@@ -3835,7 +3836,7 @@
       <c r="A86">
         <v>194.6</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C86" s="1">
@@ -3845,7 +3846,7 @@
       <c r="D86">
         <v>0</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F86" s="1">
@@ -3861,7 +3862,7 @@
       <c r="A87">
         <v>171.6</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C87" s="1">
@@ -3871,7 +3872,7 @@
       <c r="D87">
         <v>0</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F87" s="1">
@@ -3887,7 +3888,7 @@
       <c r="A88">
         <v>226</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C88" s="1">
@@ -3897,7 +3898,7 @@
       <c r="D88">
         <v>0</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="2" t="s">
         <v>145</v>
       </c>
       <c r="F88" s="1">
@@ -3913,7 +3914,7 @@
       <c r="A89">
         <v>190.2</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C89" s="1">
@@ -3923,7 +3924,7 @@
       <c r="D89">
         <v>0</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F89" s="1">
@@ -3939,7 +3940,7 @@
       <c r="A90">
         <v>172.2</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C90" s="1">
@@ -3949,7 +3950,7 @@
       <c r="D90">
         <v>0</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F90" s="1">
@@ -3965,7 +3966,7 @@
       <c r="A91">
         <v>225.2</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C91" s="1">
@@ -3975,7 +3976,7 @@
       <c r="D91">
         <v>0</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F91" s="1">
@@ -3991,7 +3992,7 @@
       <c r="A92">
         <v>171.4</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C92" s="1">
@@ -4001,7 +4002,7 @@
       <c r="D92">
         <v>0</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F92" s="1">
@@ -4017,7 +4018,7 @@
       <c r="A93">
         <v>190.6</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C93" s="1">
@@ -4027,7 +4028,7 @@
       <c r="D93">
         <v>0</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F93" s="1">
@@ -4043,7 +4044,7 @@
       <c r="A94">
         <v>244.8</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C94" s="1">
@@ -4053,7 +4054,7 @@
       <c r="D94">
         <v>0</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="2" t="s">
         <v>177</v>
       </c>
       <c r="F94" s="1">
@@ -4069,7 +4070,7 @@
       <c r="A95">
         <v>225.8</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C95" s="1">
@@ -4079,7 +4080,7 @@
       <c r="D95">
         <v>0</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F95" s="1">
@@ -4095,7 +4096,7 @@
       <c r="A96">
         <v>162.4</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C96" s="1">
@@ -4105,7 +4106,7 @@
       <c r="D96">
         <v>0</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="2" t="s">
         <v>210</v>
       </c>
       <c r="F96" s="1">
@@ -4121,7 +4122,7 @@
       <c r="A97">
         <v>190</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C97" s="1">
@@ -4131,7 +4132,7 @@
       <c r="D97">
         <v>649</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F97" s="1">
@@ -4147,7 +4148,7 @@
       <c r="A98">
         <v>176.4</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C98" s="1">
@@ -4157,7 +4158,7 @@
       <c r="D98">
         <v>649</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="2" t="s">
         <v>124</v>
       </c>
       <c r="F98" s="1">
@@ -4173,7 +4174,7 @@
       <c r="A99">
         <v>242.2</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C99" s="1">
@@ -4183,7 +4184,7 @@
       <c r="D99">
         <v>649</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="2" t="s">
         <v>240</v>
       </c>
       <c r="F99" s="1">
@@ -4199,7 +4200,7 @@
       <c r="A100">
         <v>180.8</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C100" s="1">
@@ -4209,7 +4210,7 @@
       <c r="D100">
         <v>649</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="2" t="s">
         <v>215</v>
       </c>
       <c r="F100" s="1">
@@ -4225,7 +4226,7 @@
       <c r="A101">
         <v>171.2</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C101" s="1">
@@ -4235,7 +4236,7 @@
       <c r="D101">
         <v>0</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F101" s="1">
@@ -4251,7 +4252,7 @@
       <c r="A102">
         <v>230.6</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C102" s="1">
@@ -4261,7 +4262,7 @@
       <c r="D102">
         <v>649</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="2" t="s">
         <v>214</v>
       </c>
       <c r="F102" s="1">
@@ -4277,7 +4278,7 @@
       <c r="A103">
         <v>231</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C103" s="1">
@@ -4287,7 +4288,7 @@
       <c r="D103">
         <v>649</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="2" t="s">
         <v>163</v>
       </c>
       <c r="F103" s="1">
@@ -4303,7 +4304,7 @@
       <c r="A104">
         <v>196.2</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C104" s="1">
@@ -4313,7 +4314,7 @@
       <c r="D104">
         <v>649</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="2" t="s">
         <v>195</v>
       </c>
       <c r="F104" s="1">
@@ -4329,7 +4330,7 @@
       <c r="A105">
         <v>231.8</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C105" s="1">
@@ -4339,7 +4340,7 @@
       <c r="D105">
         <v>649</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F105" s="1">
@@ -4355,7 +4356,7 @@
       <c r="A106">
         <v>231.8</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C106" s="1">
@@ -4365,7 +4366,7 @@
       <c r="D106">
         <v>0</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F106" s="1">
@@ -4381,7 +4382,7 @@
       <c r="A107">
         <v>229.8</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>241</v>
       </c>
       <c r="C107" s="1">
@@ -4391,7 +4392,7 @@
       <c r="D107">
         <v>0</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="2" t="s">
         <v>241</v>
       </c>
       <c r="F107" s="1">
@@ -4407,7 +4408,7 @@
       <c r="A108">
         <v>203.6</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C108" s="1">
@@ -4417,7 +4418,7 @@
       <c r="D108">
         <v>649</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F108" s="1">
@@ -4433,7 +4434,7 @@
       <c r="A109">
         <v>231.6</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C109" s="1">
@@ -4443,7 +4444,7 @@
       <c r="D109">
         <v>649</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="2" t="s">
         <v>170</v>
       </c>
       <c r="F109" s="1">
@@ -4459,7 +4460,7 @@
       <c r="A110">
         <v>178.2</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C110" s="1">
@@ -4469,7 +4470,7 @@
       <c r="D110">
         <v>649</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F110" s="1">
@@ -4485,7 +4486,7 @@
       <c r="A111">
         <v>177.8</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C111" s="1">
@@ -4495,7 +4496,7 @@
       <c r="D111">
         <v>649</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="2" t="s">
         <v>176</v>
       </c>
       <c r="F111" s="1">
@@ -4511,7 +4512,7 @@
       <c r="A112">
         <v>177.6</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C112" s="1">
@@ -4521,7 +4522,7 @@
       <c r="D112">
         <v>649</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F112" s="1">
@@ -4537,7 +4538,7 @@
       <c r="A113">
         <v>231.6</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C113" s="1">
@@ -4547,7 +4548,7 @@
       <c r="D113">
         <v>649</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F113" s="1">
@@ -4563,7 +4564,7 @@
       <c r="A114">
         <v>177.2</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C114" s="1">
@@ -4573,7 +4574,7 @@
       <c r="D114">
         <v>649</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F114" s="1">
@@ -4589,7 +4590,7 @@
       <c r="A115">
         <v>231.6</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C115" s="1">
@@ -4599,7 +4600,7 @@
       <c r="D115">
         <v>0</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F115" s="1">
@@ -4615,7 +4616,7 @@
       <c r="A116">
         <v>231.6</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C116" s="1">
@@ -4625,7 +4626,7 @@
       <c r="D116">
         <v>649</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F116" s="1">
@@ -4641,7 +4642,7 @@
       <c r="A117">
         <v>231.4</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C117" s="1">
@@ -4651,7 +4652,7 @@
       <c r="D117">
         <v>649</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F117" s="1">
@@ -4667,7 +4668,7 @@
       <c r="A118">
         <v>177.4</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C118" s="1">
@@ -4677,7 +4678,7 @@
       <c r="D118">
         <v>649</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F118" s="1">
@@ -4693,7 +4694,7 @@
       <c r="A119">
         <v>196.8</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="1">
@@ -4703,7 +4704,7 @@
       <c r="D119">
         <v>649</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F119" s="1">
@@ -4719,7 +4720,7 @@
       <c r="A120">
         <v>197.6</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C120" s="1">
@@ -4729,7 +4730,7 @@
       <c r="D120">
         <v>0</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F120" s="1">
@@ -4745,7 +4746,7 @@
       <c r="A121">
         <v>230.2</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C121" s="1">
@@ -4755,7 +4756,7 @@
       <c r="D121">
         <v>0</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F121" s="1">
@@ -4771,7 +4772,7 @@
       <c r="A122">
         <v>231.8</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C122" s="1">
@@ -4781,7 +4782,7 @@
       <c r="D122">
         <v>565</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F122" s="1">
@@ -4797,7 +4798,7 @@
       <c r="A123">
         <v>231.8</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C123" s="1">
@@ -4807,7 +4808,7 @@
       <c r="D123">
         <v>565</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="2" t="s">
         <v>172</v>
       </c>
       <c r="F123" s="1">
@@ -4823,7 +4824,7 @@
       <c r="A124">
         <v>232</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C124" s="1">
@@ -4833,7 +4834,7 @@
       <c r="D124">
         <v>565</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="2" t="s">
         <v>219</v>
       </c>
       <c r="F124" s="1">
@@ -4849,7 +4850,7 @@
       <c r="A125">
         <v>189.2</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C125" s="1">
@@ -4859,7 +4860,7 @@
       <c r="D125">
         <v>565</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F125" s="1">
@@ -4875,7 +4876,7 @@
       <c r="A126">
         <v>251</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C126" s="1">
@@ -4885,7 +4886,7 @@
       <c r="D126">
         <v>565</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="2" t="s">
         <v>198</v>
       </c>
       <c r="F126" s="1">
@@ -4901,7 +4902,7 @@
       <c r="A127">
         <v>239</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C127" s="1">
@@ -4911,7 +4912,7 @@
       <c r="D127">
         <v>565</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F127" s="1">
@@ -4927,7 +4928,7 @@
       <c r="A128">
         <v>177.6</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C128" s="1">
@@ -4937,7 +4938,7 @@
       <c r="D128">
         <v>565</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F128" s="1">
@@ -4953,7 +4954,7 @@
       <c r="A129">
         <v>332.2</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>192</v>
       </c>
       <c r="C129" s="1">
@@ -4963,7 +4964,7 @@
       <c r="D129">
         <v>0</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="2" t="s">
         <v>192</v>
       </c>
       <c r="F129" s="1">
@@ -4979,7 +4980,7 @@
       <c r="A130">
         <v>332</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C130" s="1">
@@ -4989,7 +4990,7 @@
       <c r="D130">
         <v>649</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F130" s="1">
@@ -5005,7 +5006,7 @@
       <c r="A131">
         <v>231.8</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C131" s="1">
@@ -5015,7 +5016,7 @@
       <c r="D131">
         <v>649</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F131" s="1">
@@ -5031,7 +5032,7 @@
       <c r="A132">
         <v>231.8</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C132" s="1">
@@ -5041,7 +5042,7 @@
       <c r="D132">
         <v>649</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F132" s="1">
@@ -5057,7 +5058,7 @@
       <c r="A133">
         <v>241.2</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C133" s="1">
@@ -5067,7 +5068,7 @@
       <c r="D133">
         <v>649</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F133" s="1">
@@ -5083,7 +5084,7 @@
       <c r="A134">
         <v>330.2</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C134" s="1">
@@ -5093,7 +5094,7 @@
       <c r="D134">
         <v>649</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="2" t="s">
         <v>193</v>
       </c>
       <c r="F134" s="1">
@@ -5109,7 +5110,7 @@
       <c r="A135">
         <v>231.8</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C135" s="1">
@@ -5119,7 +5120,7 @@
       <c r="D135">
         <v>649</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="2" t="s">
         <v>233</v>
       </c>
       <c r="F135" s="1">
@@ -5135,7 +5136,7 @@
       <c r="A136">
         <v>231.8</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C136" s="1">
@@ -5145,7 +5146,7 @@
       <c r="D136">
         <v>0</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F136" s="1">
@@ -5161,7 +5162,7 @@
       <c r="A137">
         <v>232</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C137" s="1">
@@ -5171,7 +5172,7 @@
       <c r="D137">
         <v>0</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F137" s="1">
@@ -5187,7 +5188,7 @@
       <c r="A138">
         <v>340.2</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>232</v>
       </c>
       <c r="C138" s="1">
@@ -5197,7 +5198,7 @@
       <c r="D138">
         <v>649</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F138" s="1">
@@ -5213,7 +5214,7 @@
       <c r="A139">
         <v>232.2</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C139" s="1">
@@ -5223,7 +5224,7 @@
       <c r="D139">
         <v>649</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="2" t="s">
         <v>168</v>
       </c>
       <c r="F139" s="1">
@@ -5239,7 +5240,7 @@
       <c r="A140">
         <v>229.8</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C140" s="1">
@@ -5249,7 +5250,7 @@
       <c r="D140">
         <v>649</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F140" s="1">
@@ -5265,7 +5266,7 @@
       <c r="A141">
         <v>229.8</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C141" s="1">
@@ -5275,7 +5276,7 @@
       <c r="D141">
         <v>649</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="2" t="s">
         <v>218</v>
       </c>
       <c r="F141" s="1">
@@ -5291,7 +5292,7 @@
       <c r="A142">
         <v>231.8</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C142" s="1">
@@ -5301,7 +5302,7 @@
       <c r="D142">
         <v>649</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="2" t="s">
         <v>188</v>
       </c>
       <c r="F142" s="1">
@@ -5317,7 +5318,7 @@
       <c r="A143">
         <v>337.8</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C143" s="1">
@@ -5327,7 +5328,7 @@
       <c r="D143">
         <v>649</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F143" s="1">
@@ -5343,7 +5344,7 @@
       <c r="A144">
         <v>330.8</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C144" s="1">
@@ -5353,7 +5354,7 @@
       <c r="D144">
         <v>649</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="2" t="s">
         <v>194</v>
       </c>
       <c r="F144" s="1">
@@ -5369,7 +5370,7 @@
       <c r="A145">
         <v>329</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C145" s="1">
@@ -5379,7 +5380,7 @@
       <c r="D145">
         <v>565</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F145" s="1">
@@ -5395,7 +5396,7 @@
       <c r="A146">
         <v>331</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C146" s="1">
@@ -5405,7 +5406,7 @@
       <c r="D146">
         <v>566</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F146" s="1">
@@ -5421,7 +5422,7 @@
       <c r="A147">
         <v>348.4</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C147" s="1">
@@ -5431,7 +5432,7 @@
       <c r="D147">
         <v>566</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F147" s="1">
@@ -5447,7 +5448,7 @@
       <c r="A148">
         <v>348.2</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C148" s="1">
@@ -5457,7 +5458,7 @@
       <c r="D148">
         <v>0</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F148" s="1">
@@ -5473,7 +5474,7 @@
       <c r="A149">
         <v>330.4</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C149" s="1">
@@ -5483,7 +5484,7 @@
       <c r="D149">
         <v>566</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="2" t="s">
         <v>204</v>
       </c>
       <c r="F149" s="1">
@@ -5499,7 +5500,7 @@
       <c r="A150">
         <v>177.6</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C150" s="1">
@@ -5509,7 +5510,7 @@
       <c r="D150">
         <v>566</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="2" t="s">
         <v>181</v>
       </c>
       <c r="F150" s="1">
@@ -5525,7 +5526,7 @@
       <c r="A151">
         <v>348.2</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C151" s="1">
@@ -5535,7 +5536,7 @@
       <c r="D151">
         <v>566</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="2" t="s">
         <v>185</v>
       </c>
       <c r="F151" s="1">
@@ -5551,7 +5552,7 @@
       <c r="A152">
         <v>330.6</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C152" s="1">
@@ -5561,7 +5562,7 @@
       <c r="D152">
         <v>566</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="2" t="s">
         <v>130</v>
       </c>
       <c r="F152" s="1">
@@ -5577,7 +5578,7 @@
       <c r="A153">
         <v>329</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C153" s="1">
@@ -5587,7 +5588,7 @@
       <c r="D153">
         <v>566</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F153" s="1">
@@ -5603,7 +5604,7 @@
       <c r="A154">
         <v>330.6</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
         <v>230</v>
       </c>
       <c r="C154" s="1">
@@ -5613,7 +5614,7 @@
       <c r="D154">
         <v>566</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="2" t="s">
         <v>230</v>
       </c>
       <c r="F154" s="1">
@@ -5629,7 +5630,7 @@
       <c r="A155">
         <v>195.6</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C155" s="1">
@@ -5639,7 +5640,7 @@
       <c r="D155">
         <v>0</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F155" s="1">
@@ -5655,7 +5656,7 @@
       <c r="A156">
         <v>195.6</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C156" s="1">
@@ -5665,7 +5666,7 @@
       <c r="D156">
         <v>566</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F156" s="1">
@@ -5681,7 +5682,7 @@
       <c r="A157">
         <v>178.2</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C157" s="1">
@@ -5691,7 +5692,7 @@
       <c r="D157">
         <v>566</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F157" s="1">
@@ -5707,7 +5708,7 @@
       <c r="A158">
         <v>176.2</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C158" s="1">
@@ -5717,7 +5718,7 @@
       <c r="D158">
         <v>566</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="2" t="s">
         <v>156</v>
       </c>
       <c r="F158" s="1">
@@ -5733,7 +5734,7 @@
       <c r="A159">
         <v>178.2</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C159" s="1">
@@ -5743,7 +5744,7 @@
       <c r="D159">
         <v>0</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="2" t="s">
         <v>222</v>
       </c>
       <c r="F159" s="1">
@@ -5759,7 +5760,7 @@
       <c r="A160">
         <v>178</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C160" s="1">
@@ -5769,7 +5770,7 @@
       <c r="D160">
         <v>566</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E160" s="2" t="s">
         <v>144</v>
       </c>
       <c r="F160" s="1">
@@ -5785,7 +5786,7 @@
       <c r="A161">
         <v>178.2</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C161" s="1">
@@ -5795,7 +5796,7 @@
       <c r="D161">
         <v>0</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F161" s="1">
@@ -5811,7 +5812,7 @@
       <c r="A162">
         <v>178</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C162" s="1">
@@ -5821,7 +5822,7 @@
       <c r="D162">
         <v>566</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="2" t="s">
         <v>184</v>
       </c>
       <c r="F162" s="1">
@@ -5837,7 +5838,7 @@
       <c r="A163">
         <v>140.6</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C163" s="1">
@@ -5847,7 +5848,7 @@
       <c r="D163">
         <v>566</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F163" s="1">
@@ -5863,7 +5864,7 @@
       <c r="A164">
         <v>176</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C164" s="1">
@@ -5873,7 +5874,7 @@
       <c r="D164">
         <v>566</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F164" s="1">
@@ -5889,7 +5890,7 @@
       <c r="A165">
         <v>178</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C165" s="1">
@@ -5899,7 +5900,7 @@
       <c r="D165">
         <v>0</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="2" t="s">
         <v>161</v>
       </c>
       <c r="F165" s="1">
@@ -5915,7 +5916,7 @@
       <c r="A166">
         <v>178.2</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="2" t="s">
         <v>229</v>
       </c>
       <c r="C166" s="1">
@@ -5925,7 +5926,7 @@
       <c r="D166">
         <v>0</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F166" s="1">
@@ -5941,7 +5942,7 @@
       <c r="A167">
         <v>131</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C167" s="1">
@@ -5951,7 +5952,7 @@
       <c r="D167">
         <v>566</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F167" s="1">
@@ -5967,7 +5968,7 @@
       <c r="A168">
         <v>124</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C168" s="1">
@@ -5977,7 +5978,7 @@
       <c r="D168">
         <v>566</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="2" t="s">
         <v>211</v>
       </c>
       <c r="F168" s="1">
@@ -5993,7 +5994,7 @@
       <c r="A169">
         <v>158.6</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C169" s="1">
@@ -6003,7 +6004,7 @@
       <c r="D169">
         <v>0</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="2" t="s">
         <v>226</v>
       </c>
       <c r="F169" s="1">
@@ -6019,7 +6020,7 @@
       <c r="A170">
         <v>177.8</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C170" s="1">
@@ -6029,7 +6030,7 @@
       <c r="D170">
         <v>0</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F170" s="1">
@@ -6045,7 +6046,7 @@
       <c r="A171">
         <v>178.2</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C171" s="1">
@@ -6055,7 +6056,7 @@
       <c r="D171">
         <v>566</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F171" s="1">
@@ -6071,7 +6072,7 @@
       <c r="A172">
         <v>178</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C172" s="1">
@@ -6081,7 +6082,7 @@
       <c r="D172">
         <v>566</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F172" s="1">
@@ -6097,7 +6098,7 @@
       <c r="A173">
         <v>137.80000000000001</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C173" s="1">
@@ -6107,7 +6108,7 @@
       <c r="D173">
         <v>0</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F173" s="1">
@@ -6123,7 +6124,7 @@
       <c r="A174">
         <v>138</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C174" s="1">
@@ -6133,7 +6134,7 @@
       <c r="D174">
         <v>0</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F174" s="1">
@@ -6149,7 +6150,7 @@
       <c r="A175">
         <v>178.2</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C175" s="1">
@@ -6159,7 +6160,7 @@
       <c r="D175">
         <v>566</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F175" s="1">
@@ -6175,7 +6176,7 @@
       <c r="A176">
         <v>131</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C176" s="1">
@@ -6185,7 +6186,7 @@
       <c r="D176">
         <v>566</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F176" s="1">
@@ -6201,7 +6202,7 @@
       <c r="A177">
         <v>124.6</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C177" s="1">
@@ -6211,7 +6212,7 @@
       <c r="D177">
         <v>566</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E177" s="2" t="s">
         <v>237</v>
       </c>
       <c r="F177" s="1">
@@ -6227,7 +6228,7 @@
       <c r="A178">
         <v>176.2</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C178" s="1">
@@ -6237,7 +6238,7 @@
       <c r="D178">
         <v>566</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F178" s="1">
@@ -6253,7 +6254,7 @@
       <c r="A179">
         <v>189.4</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C179" s="1">
@@ -6263,7 +6264,7 @@
       <c r="D179">
         <v>566</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F179" s="1">
@@ -6279,7 +6280,7 @@
       <c r="A180">
         <v>178.2</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C180" s="1">
@@ -6289,7 +6290,7 @@
       <c r="D180">
         <v>566</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F180" s="1">
@@ -6305,7 +6306,7 @@
       <c r="A181">
         <v>195.6</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C181" s="1">
@@ -6315,7 +6316,7 @@
       <c r="D181">
         <v>0</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E181" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F181" s="1">
@@ -6331,7 +6332,7 @@
       <c r="A182">
         <v>174.4</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C182" s="1">
@@ -6341,7 +6342,7 @@
       <c r="D182">
         <v>566</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E182" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F182" s="1">
@@ -6357,7 +6358,7 @@
       <c r="A183">
         <v>126.8</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C183" s="1">
@@ -6367,7 +6368,7 @@
       <c r="D183">
         <v>566</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E183" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F183" s="1">
@@ -6383,7 +6384,7 @@
       <c r="A184">
         <v>178.2</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C184" s="1">
@@ -6393,7 +6394,7 @@
       <c r="D184">
         <v>0</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F184" s="1">
@@ -6409,7 +6410,7 @@
       <c r="A185">
         <v>178</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C185" s="1">
@@ -6419,7 +6420,7 @@
       <c r="D185">
         <v>566</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E185" s="2" t="s">
         <v>155</v>
       </c>
       <c r="F185" s="1">
@@ -6435,7 +6436,7 @@
       <c r="A186">
         <v>178.2</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C186" s="1">
@@ -6445,7 +6446,7 @@
       <c r="D186">
         <v>566</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E186" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F186" s="1">
@@ -6461,7 +6462,7 @@
       <c r="A187">
         <v>196</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C187" s="1">
@@ -6471,7 +6472,7 @@
       <c r="D187">
         <v>566</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F187" s="1">
@@ -6487,7 +6488,7 @@
       <c r="A188">
         <v>155.4</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C188" s="1">
@@ -6497,7 +6498,7 @@
       <c r="D188">
         <v>566</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F188" s="1">
@@ -6513,7 +6514,7 @@
       <c r="A189">
         <v>196.2</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C189" s="1">
@@ -6523,7 +6524,7 @@
       <c r="D189">
         <v>0</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E189" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F189" s="1">
@@ -6539,7 +6540,7 @@
       <c r="A190">
         <v>137.6</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C190" s="1">
@@ -6549,7 +6550,7 @@
       <c r="D190">
         <v>566</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E190" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F190" s="1">
@@ -6565,7 +6566,7 @@
       <c r="A191">
         <v>177.6</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C191" s="1">
@@ -6575,7 +6576,7 @@
       <c r="D191">
         <v>566</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E191" s="2" t="s">
         <v>136</v>
       </c>
       <c r="F191" s="1">
@@ -6591,7 +6592,7 @@
       <c r="A192">
         <v>177.2</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C192" s="1">
@@ -6601,7 +6602,7 @@
       <c r="D192">
         <v>566</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E192" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F192" s="1">
@@ -6617,7 +6618,7 @@
       <c r="A193">
         <v>329.8</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C193" s="1">
@@ -6627,7 +6628,7 @@
       <c r="D193">
         <v>561</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F193" s="1">
@@ -6643,7 +6644,7 @@
       <c r="A194">
         <v>326.2</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C194" s="1">
@@ -6653,7 +6654,7 @@
       <c r="D194">
         <v>561</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F194" s="1">
@@ -6669,7 +6670,7 @@
       <c r="A195">
         <v>330.6</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="2" t="s">
         <v>234</v>
       </c>
       <c r="C195" s="1">
@@ -6679,7 +6680,7 @@
       <c r="D195">
         <v>561</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E195" s="2" t="s">
         <v>234</v>
       </c>
       <c r="F195" s="1">
@@ -6695,7 +6696,7 @@
       <c r="A196">
         <v>301.2</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C196" s="1">
@@ -6705,7 +6706,7 @@
       <c r="D196">
         <v>561</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F196" s="1">
@@ -6721,7 +6722,7 @@
       <c r="A197">
         <v>195.2</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C197" s="1">
@@ -6731,7 +6732,7 @@
       <c r="D197">
         <v>561</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F197" s="1">
@@ -6747,7 +6748,7 @@
       <c r="A198">
         <v>195.4</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C198" s="1">
@@ -6757,7 +6758,7 @@
       <c r="D198">
         <v>561</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F198" s="1">
@@ -6773,7 +6774,7 @@
       <c r="A199">
         <v>191.6</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C199" s="1">
@@ -6783,7 +6784,7 @@
       <c r="D199">
         <v>0</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F199" s="1">
@@ -6799,7 +6800,7 @@
       <c r="A200">
         <v>83.6</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C200" s="1">
@@ -6809,7 +6810,7 @@
       <c r="D200">
         <v>561</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F200" s="1">
@@ -6825,7 +6826,7 @@
       <c r="A201">
         <v>178</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C201" s="1">
@@ -6835,7 +6836,7 @@
       <c r="D201">
         <v>561</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E201" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F201" s="1">
@@ -6851,7 +6852,7 @@
       <c r="A202">
         <v>175.8</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C202" s="1">
@@ -6861,7 +6862,7 @@
       <c r="D202">
         <v>561</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E202" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F202" s="1">
@@ -6877,7 +6878,7 @@
       <c r="A203">
         <v>148.80000000000001</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C203" s="1">
@@ -6887,7 +6888,7 @@
       <c r="D203">
         <v>0</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F203" s="1">
@@ -6903,7 +6904,7 @@
       <c r="A204">
         <v>184.4</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C204" s="1">
@@ -6913,7 +6914,7 @@
       <c r="D204">
         <v>561</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F204" s="1">
@@ -6929,7 +6930,7 @@
       <c r="A205">
         <v>137.6</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C205" s="1">
@@ -6939,7 +6940,7 @@
       <c r="D205">
         <v>561</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E205" s="2" t="s">
         <v>167</v>
       </c>
       <c r="F205" s="1">
@@ -6955,7 +6956,7 @@
       <c r="A206">
         <v>131.19999999999999</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C206" s="1">
@@ -6965,7 +6966,7 @@
       <c r="D206">
         <v>561</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E206" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F206" s="1">
@@ -6981,7 +6982,7 @@
       <c r="A207">
         <v>130.6</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C207" s="1">
@@ -6991,7 +6992,7 @@
       <c r="D207">
         <v>0</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E207" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F207" s="1">
@@ -7007,7 +7008,7 @@
       <c r="A208">
         <v>177.8</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C208" s="1">
@@ -7017,7 +7018,7 @@
       <c r="D208">
         <v>561</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E208" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F208" s="1">
@@ -7033,7 +7034,7 @@
       <c r="A209">
         <v>130.6</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C209" s="1">
@@ -7043,7 +7044,7 @@
       <c r="D209">
         <v>561</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E209" s="2" t="s">
         <v>109</v>
       </c>
       <c r="F209" s="1">
@@ -7059,7 +7060,7 @@
       <c r="A210">
         <v>129.4</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C210" s="1">
@@ -7069,7 +7070,7 @@
       <c r="D210">
         <v>561</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E210" s="2" t="s">
         <v>212</v>
       </c>
       <c r="F210" s="1">
@@ -7085,7 +7086,7 @@
       <c r="A211">
         <v>129.4</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="2" t="s">
         <v>244</v>
       </c>
       <c r="C211" s="1">
@@ -7095,7 +7096,7 @@
       <c r="D211">
         <v>561</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="2" t="s">
         <v>244</v>
       </c>
       <c r="F211" s="1">
@@ -7111,7 +7112,7 @@
       <c r="A212">
         <v>177.2</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C212" s="1">
@@ -7121,7 +7122,7 @@
       <c r="D212">
         <v>0</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E212" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F212" s="1">
@@ -7137,7 +7138,7 @@
       <c r="A213">
         <v>155</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C213" s="1">
@@ -7147,7 +7148,7 @@
       <c r="D213">
         <v>0</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E213" s="2" t="s">
         <v>178</v>
       </c>
       <c r="F213" s="1">
@@ -7163,7 +7164,7 @@
       <c r="A214">
         <v>177.8</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C214" s="1">
@@ -7173,7 +7174,7 @@
       <c r="D214">
         <v>561</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F214" s="1">
@@ -7189,7 +7190,7 @@
       <c r="A215">
         <v>90.8</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C215" s="1">
@@ -7199,7 +7200,7 @@
       <c r="D215">
         <v>561</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="2" t="s">
         <v>187</v>
       </c>
       <c r="F215" s="1">
@@ -7215,7 +7216,7 @@
       <c r="A216">
         <v>193</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C216" s="1">
@@ -7225,7 +7226,7 @@
       <c r="D216">
         <v>561</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="2" t="s">
         <v>132</v>
       </c>
       <c r="F216" s="1">
@@ -7241,7 +7242,7 @@
       <c r="A217">
         <v>353.6</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C217" s="1">
@@ -7251,7 +7252,7 @@
       <c r="D217">
         <v>0</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F217" s="1">
@@ -7267,7 +7268,7 @@
       <c r="A218">
         <v>292.8</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="2" t="s">
         <v>179</v>
       </c>
       <c r="C218" s="1">
@@ -7277,7 +7278,7 @@
       <c r="D218">
         <v>0</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E218" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F218" s="1">
@@ -7293,7 +7294,7 @@
       <c r="A219">
         <v>329.6</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C219" s="1">
@@ -7303,7 +7304,7 @@
       <c r="D219">
         <v>0</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="2" t="s">
         <v>221</v>
       </c>
       <c r="F219" s="1">
@@ -7319,7 +7320,7 @@
       <c r="A220">
         <v>329.6</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C220" s="1">
@@ -7329,7 +7330,7 @@
       <c r="D220">
         <v>0</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E220" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F220" s="1">
@@ -7345,7 +7346,7 @@
       <c r="A221">
         <v>282.39999999999998</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="2" t="s">
         <v>243</v>
       </c>
       <c r="C221" s="1">
@@ -7355,7 +7356,7 @@
       <c r="D221">
         <v>0</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E221" s="2" t="s">
         <v>243</v>
       </c>
       <c r="F221" s="1">
@@ -7371,7 +7372,7 @@
       <c r="A222">
         <v>327.60000000000002</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C222" s="1">
@@ -7381,7 +7382,7 @@
       <c r="D222">
         <v>0</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E222" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F222" s="1">
@@ -7397,7 +7398,7 @@
       <c r="A223">
         <v>324.39999999999998</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C223" s="1">
@@ -7407,7 +7408,7 @@
       <c r="D223">
         <v>0</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E223" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F223" s="1">
@@ -7423,7 +7424,7 @@
       <c r="A224">
         <v>241</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C224" s="1">
@@ -7433,7 +7434,7 @@
       <c r="D224">
         <v>0</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E224" s="2" t="s">
         <v>165</v>
       </c>
       <c r="F224" s="1">
@@ -7449,7 +7450,7 @@
       <c r="A225">
         <v>337</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C225" s="1">
@@ -7459,7 +7460,7 @@
       <c r="D225">
         <v>0</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F225" s="1">
@@ -7475,7 +7476,7 @@
       <c r="A226">
         <v>327</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C226" s="1">
@@ -7485,7 +7486,7 @@
       <c r="D226">
         <v>0</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F226" s="1">
@@ -7501,7 +7502,7 @@
       <c r="A227">
         <v>327.60000000000002</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C227" s="1">
@@ -7511,7 +7512,7 @@
       <c r="D227">
         <v>0</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F227" s="1">
@@ -7527,7 +7528,7 @@
       <c r="A228">
         <v>316.2</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="2" t="s">
         <v>242</v>
       </c>
       <c r="C228" s="1">
@@ -7537,7 +7538,7 @@
       <c r="D228">
         <v>0</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E228" s="2" t="s">
         <v>242</v>
       </c>
       <c r="F228" s="1">
@@ -7553,7 +7554,7 @@
       <c r="A229">
         <v>94</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C229" s="1">
@@ -7563,7 +7564,7 @@
       <c r="D229">
         <v>0</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F229" s="1">
@@ -7579,7 +7580,7 @@
       <c r="A230">
         <v>174</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C230" s="1">
@@ -7589,7 +7590,7 @@
       <c r="D230">
         <v>0</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E230" s="2" t="s">
         <v>216</v>
       </c>
       <c r="F230" s="1">
@@ -7605,7 +7606,7 @@
       <c r="A231">
         <v>139</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C231" s="1">
@@ -7615,7 +7616,7 @@
       <c r="D231">
         <v>0</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E231" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F231" s="1">
@@ -7631,7 +7632,7 @@
       <c r="A232">
         <v>173.6</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C232" s="1">
@@ -7641,7 +7642,7 @@
       <c r="D232">
         <v>0</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E232" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F232" s="1">
@@ -7657,7 +7658,7 @@
       <c r="A233">
         <v>345</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C233" s="1">
@@ -7667,7 +7668,7 @@
       <c r="D233">
         <v>0</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E233" s="2" t="s">
         <v>175</v>
       </c>
       <c r="F233" s="1">
@@ -7683,7 +7684,7 @@
       <c r="A234">
         <v>345</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C234" s="1">
@@ -7693,7 +7694,7 @@
       <c r="D234">
         <v>0</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E234" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F234" s="1">
@@ -7709,7 +7710,7 @@
       <c r="A235">
         <v>298.60000000000002</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C235" s="1">
@@ -7719,7 +7720,7 @@
       <c r="D235">
         <v>0</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E235" s="2" t="s">
         <v>235</v>
       </c>
       <c r="F235" s="1">
@@ -7735,7 +7736,7 @@
       <c r="A236">
         <v>290.60000000000002</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C236" s="1">
@@ -7745,7 +7746,7 @@
       <c r="D236">
         <v>0</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E236" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F236" s="1">
@@ -7761,7 +7762,7 @@
       <c r="A237">
         <v>307</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C237" s="1">
@@ -7771,7 +7772,7 @@
       <c r="D237">
         <v>0</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E237" s="2" t="s">
         <v>189</v>
       </c>
       <c r="F237" s="1">
@@ -7787,7 +7788,7 @@
       <c r="A238">
         <v>278</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C238" s="1">
@@ -7797,7 +7798,7 @@
       <c r="D238">
         <v>0</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E238" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F238" s="1">
@@ -7813,7 +7814,7 @@
       <c r="A239">
         <v>349.2</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C239" s="1">
@@ -7823,7 +7824,7 @@
       <c r="D239">
         <v>0</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E239" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F239" s="1">
@@ -7839,7 +7840,7 @@
       <c r="A240">
         <v>331.6</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C240" s="1">
@@ -7849,7 +7850,7 @@
       <c r="D240">
         <v>0</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E240" s="2" t="s">
         <v>140</v>
       </c>
       <c r="F240" s="1">
@@ -7862,7 +7863,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B240">
+  <autoFilter ref="A1:B240" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B240">
       <sortCondition ref="B1:B240"/>
     </sortState>
